--- a/Output_testing/R1_201907/Country/HKD/MN/DOMINICAN REP_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/DOMINICAN REP_201907_HKD_MN.xlsx
@@ -547,11 +547,15 @@
       <c r="D7" s="8" t="n">
         <v>0.5147040000000001</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.395108</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.121413</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="G7" s="8" t="n">
         <v>0.652375</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/DOMINICAN REP_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/DOMINICAN REP_201907_HKD_MN.xlsx
@@ -814,136 +814,439 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>482.363931</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>65.62858620664213</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>437.449699</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>54.59399941632741</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>519.606494</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>59.80360261261917</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>461.955893</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>51.7073564156826</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>62.69328434074557</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>9.648130999999999</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>1.312687695686094</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>89.143762</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>11.12519794098025</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>82.94887300000001</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>9.54691963117885</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>239.819701</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>26.84334791051022</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2.822334</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.3839959381683891</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>4.057759</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.5064108924614834</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>3.976377</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.4576572323323557</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>24.624626</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.756268146978449</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>985.6767848136091</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>30.713543</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.178766849975998</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>38.388698</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>4.790933817068574</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>47.537209</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.471248702963715</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>22.242993</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.489688700220853</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-16.42172835847008</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>24.9263</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.391376766026529</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>9.381689</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.170840727427647</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>18.259447</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.101553242547006</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>15.552116</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.740769664843392</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>6.886844225888877</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>16.69571</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.271554261415323</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>14.426108</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.800387412615127</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>16.597371</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.910258226484385</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>11.379194</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.273688784572333</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>3.717619444584708</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>9.751486999999999</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.32674991659451</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>16.195991</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.021269931656402</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>14.776786</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.700719771673435</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>10.47491</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.172471036736396</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>53.74161880821408</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>6.480673</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.8817355098998022</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>5.648321</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.7049140371616299</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>6.828768</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.7859503923093196</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>8.728585000000001</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.9770024853857225</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>156.7873606011387</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2.794974</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.380273441515517</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>12.000652</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.497688968083044</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>6.648326</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.7651825963190213</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>8.53945</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.9558323455436486</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>335.6468829090434</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OTHER PLASTICS, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.198029</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.2743154109315565</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>6.189473</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.7123713578405273</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>7.984671</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.8937351715068711</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>402.3672950134295</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>148.793504</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>20.24427341407571</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>172.387278</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>21.51404144528688</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>145.485713</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>16.74453623373222</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>82.102446</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.189839338019516</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>12.00078280894587</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1278,597 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0.6615452765084398</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>14.86833979570143</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>4.671657894953588</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.652375</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>74.53557002136125</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>85.86477560063585</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>89.92683173241319</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>6.654971049228665</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.611396064534179</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.227957925427985</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.8085954551819</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>5.800226926544188</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>6.368132257509338</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1900,439 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>482.363931</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>65.67457722774542</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>437.449699</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>54.62093285005901</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>519.606494</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>59.81196068265932</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>461.955893</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>51.74514135338853</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>62.69328434074557</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>9.648130999999999</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>1.313607597378388</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>89.143762</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>11.130686452258</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>82.94887300000001</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9.548253895662244</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>239.819701</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>26.86296357642173</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2.822334</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.3842650337914499</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>4.057759</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.5066607254900011</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>3.976377</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.4577211938837523</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>24.624626</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.758282278573133</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>985.6767848136091</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>30.713543</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.181695234777369</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>38.388698</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>4.793297378995784</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>47.537209</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.472013357229824</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>22.242993</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.491508029982922</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-16.42172835847008</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>24.9263</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.393753365758914</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>9.381689</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.171418350636783</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>18.259447</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.10184695276557</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>15.552116</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.742041725105335</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>6.886844225888877</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>16.69571</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.2731461149964</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>14.426108</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.801275616732563</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>16.597371</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.910525201572076</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>11.379194</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.274619527405034</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>3.717619444584708</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>9.751486999999999</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.327679672771502</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>16.195991</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.022267106077401</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>14.776786</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.700957461952103</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>10.47491</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.173327815116806</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>53.74161880821408</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>2.794974</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.3805399284975569</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>12.000652</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.498427838783188</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>6.648326</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.7652895371963955</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>8.53945</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.9565308160928552</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>335.6468829090434</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>6.477268</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.8818898142091889</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>5.589575</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.6979266448995055</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>6.823096</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.7854073311216353</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>8.07621</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.904641837851065</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>137.5950568804133</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OTHER PLASTICS, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.198029</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.274450741847424</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>6.189473</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.7124709178911481</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>7.984671</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.8943882648019432</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>402.3672950134295</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>148.282205</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>20.18884601007382</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>172.050916</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>21.48265629422034</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>145.369972</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>16.73355346806594</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>82.102446</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.196554775260651</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>12.1769936813716</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2364,475 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>0.834726</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>0.5285673657247841</v>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>26.988645</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>24.2162439522076</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>33.809764</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>28.92441943404329</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>39.007665</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>24.7005349445505</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>51.383442</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>30.97954260834882</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>21.61223</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>19.39211968704689</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-16.73055713684389</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>29.947107</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>25.6198973676413</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>56.616904</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>35.851102999994</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>36.314504</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>21.89434339507761</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>20.097432</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>18.03292889009076</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>42.63064241030315</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>9.789227</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>8.374731858023654</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>18.222473</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>11.53888168165482</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>41.87424</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>25.24635858906113</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>15.285294</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>13.71511642712019</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-42.60535797684568</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>17.276442</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>14.78008112496502</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>16.273787</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>10.30492967148051</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>12.177308</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>7.341809294149406</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>6.955987</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>6.241435170990789</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>13.09863858641396</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>7.141813</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>6.109856156686068</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>4.116717</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.606798230945767</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>5.355868</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.229101330165697</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>6.445808</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>5.783664166803905</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>137.2932595441964</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.3520359969094029</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.06397447900170229</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.2472831501014328</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>3.791644</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.40214842515896</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>0.998211</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.8539744213439581</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>2.652802</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.380293652715956</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1.272002</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.7669015274785389</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.700866</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.526145013431224</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.2429599751595591</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.3013329038057811</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1.543237</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.9304315658005239</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.47679</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.325087158180067</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>132.9384226390928</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>17.23198</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>14.74204366522775</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>22.258706</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>14.0947156250823</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>15.531743</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>9.364228539816843</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>4.44102</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>3.984817456253658</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>7.854313545964775</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
